--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo.francia5\Documents\repos\handsOnDataPipelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3378B6A3-C5CF-45DA-957C-B609D3580FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1AB82-3854-45C1-A748-82E1C77841E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CE82C340-3D8F-4ABD-A679-9D2B9C327958}"/>
+    <workbookView xWindow="33180" yWindow="330" windowWidth="21600" windowHeight="11505" xr2:uid="{CE82C340-3D8F-4ABD-A679-9D2B9C327958}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Hands on data processing</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>02 notebook</t>
+  </si>
+  <si>
+    <t>03 slides</t>
+  </si>
+  <si>
+    <t>03 notebook</t>
+  </si>
+  <si>
+    <t>Tableau</t>
   </si>
 </sst>
 </file>
@@ -105,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +142,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -171,6 +192,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +516,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,8 +538,8 @@
         <v>7</v>
       </c>
       <c r="F1" s="8">
-        <f>SUM(F2:F7)</f>
-        <v>125</v>
+        <f>SUM(F2:F19)</f>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -572,10 +600,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="B6" s="9">
         <v>75</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="5">
@@ -586,10 +614,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="B7" s="9">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="6">
@@ -600,7 +628,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="10">
         <v>60</v>
       </c>
       <c r="C8" t="s">
@@ -614,13 +642,28 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="3"/>
+      <c r="F9" s="9">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="3"/>
+      <c r="F10" s="9">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="3"/>
+      <c r="F11" s="10">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="3"/>
